--- a/IAM/iam_비교.xlsx
+++ b/IAM/iam_비교.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="691">
   <si>
     <t>Directory Services Plus</t>
   </si>
@@ -3999,10 +3999,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>컨설팅 미포함, agent 포함</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4091,6 +4087,18 @@
 - SW가격이 단일 5천만원 이상 또는 동일 SW의 다량구매로 5천만원을 초과하고, SW품질인증
 (GS)·CC·NEP·NET 국가인증을 획득한 SW 또는 국가정보원 검증/지정 SW가 포함된 경우
 ※ 1차 조건 충족 시 2차 조건 중 어느 하나라도 해당하는 경우 분리발주 대상 사업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가세포함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이니텍이 되었을 경우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM제품을 nets로 도입가능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5328,7 +5336,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5773,12 +5781,57 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5836,44 +5889,125 @@
     <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5896,134 +6030,11 @@
     <xf numFmtId="31" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7146,10 +7157,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7186,10 +7197,10 @@
         <v>467</v>
       </c>
       <c r="B2" s="37">
-        <v>671258016</v>
-      </c>
-      <c r="C2" s="37">
-        <v>968000000</v>
+        <v>423540000</v>
+      </c>
+      <c r="C2" s="50">
+        <v>880000000</v>
       </c>
       <c r="D2" s="36">
         <v>368600000</v>
@@ -7214,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="40">
-        <v>630000000</v>
+        <v>610000000</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>481</v>
@@ -7229,11 +7240,10 @@
       </c>
       <c r="B5" s="50">
         <f>B2+B4</f>
-        <v>1301258016</v>
+        <v>1033540000</v>
       </c>
       <c r="C5" s="50">
-        <f>C2</f>
-        <v>968000000</v>
+        <v>880000000</v>
       </c>
       <c r="D5" s="50">
         <f>D2+D4</f>
@@ -7241,128 +7251,124 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="148" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" s="50">
+        <v>1136894000</v>
+      </c>
+      <c r="C6" s="50">
+        <v>968000000</v>
+      </c>
+      <c r="D6" s="50"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="53" t="s">
         <v>501</v>
       </c>
-      <c r="B6" s="57">
-        <v>937824495</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57" t="s">
         <v>647</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D7" s="57">
         <v>221160000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="148" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="150" t="s">
         <v>462</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B8" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C8" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D8" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="149"/>
-      <c r="B8" s="43" t="s">
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="151"/>
+      <c r="B9" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C9" s="48" t="s">
         <v>470</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D9" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="G8" s="34"/>
-    </row>
-    <row r="9" spans="1:7" ht="33">
-      <c r="A9" s="149"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="56" t="s">
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="33">
+      <c r="A10" s="151"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="56" t="s">
         <v>496</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D10" s="46" t="s">
         <v>646</v>
       </c>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="150"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="48" t="s">
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="152"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="48" t="s">
         <v>645</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="G10" s="34"/>
-    </row>
-    <row r="11" spans="1:7" ht="49.5">
-      <c r="A11" s="148" t="s">
+      <c r="D11" s="46"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="49.5">
+      <c r="A12" s="150" t="s">
         <v>463</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B12" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C12" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="D11" s="147" t="s">
+      <c r="D12" s="147" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="149"/>
-      <c r="B12" s="48" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="151"/>
+      <c r="B13" s="48" t="s">
         <v>473</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="149"/>
-      <c r="B13" s="48" t="s">
-        <v>644</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="150"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="48" t="s">
+        <v>644</v>
+      </c>
+      <c r="C14" s="48"/>
+      <c r="D14" s="46"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="54" t="s">
-        <v>480</v>
-      </c>
+      <c r="A15" s="152"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="47"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>491</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>491</v>
@@ -7375,105 +7381,105 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="51" t="s">
-        <v>479</v>
+      <c r="A18" s="54" t="s">
+        <v>498</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>491</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33">
-      <c r="A19" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="B19" s="41" t="s">
-        <v>508</v>
+    <row r="19" spans="1:5">
+      <c r="A19" s="51" t="s">
+        <v>479</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>491</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="51" t="s">
-        <v>484</v>
+    </row>
+    <row r="20" spans="1:5" ht="33">
+      <c r="A20" s="54" t="s">
+        <v>499</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>508</v>
       </c>
       <c r="C20" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>642</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D21" s="35" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>491</v>
+      </c>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="54" t="s">
         <v>505</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B23" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C23" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="51" t="s">
-        <v>476</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>642</v>
-      </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="51" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>490</v>
       </c>
       <c r="C24" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>491</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="51" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>490</v>
@@ -7487,112 +7493,121 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B27" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C27" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D27" s="36" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="41.25" customHeight="1">
-      <c r="A27" s="55" t="s">
+    <row r="28" spans="1:5" ht="41.25" customHeight="1">
+      <c r="A28" s="55" t="s">
         <v>483</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B28" s="35" t="s">
         <v>495</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>491</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>508</v>
       </c>
       <c r="C28" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="36" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>508</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="51" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B30" s="41" t="s">
         <v>508</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>491</v>
+        <v>487</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>508</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="35" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="32" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" s="32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="32" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="C35" s="32" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="32" t="s">
+    <row r="38" spans="3:3">
+      <c r="C38" s="32" t="s">
         <v>669</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" s="32" t="s">
-        <v>670</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7602,87 +7617,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
         <v>672</v>
-      </c>
-      <c r="C2" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="99">
-      <c r="C4" s="232" t="s">
+      <c r="C4" s="149" t="s">
+        <v>685</v>
+      </c>
+      <c r="D4" s="149" t="s">
         <v>686</v>
       </c>
-      <c r="D4" s="232" t="s">
+    </row>
+    <row r="5" spans="2:4" ht="198">
+      <c r="C5" s="149" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="198">
-      <c r="C5" s="232" t="s">
-        <v>688</v>
-      </c>
-      <c r="D5" s="232"/>
+      <c r="D5" s="149"/>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C7" t="s">
+        <v>674</v>
+      </c>
+      <c r="D7" t="s">
         <v>675</v>
-      </c>
-      <c r="D7" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D8" t="s">
         <v>677</v>
-      </c>
-      <c r="D8" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C9" t="s">
         <v>680</v>
-      </c>
-      <c r="C9" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" t="s">
         <v>682</v>
       </c>
-      <c r="C11" t="s">
-        <v>683</v>
-      </c>
       <c r="D11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" t="s">
-        <v>684</v>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C14" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -7815,16 +7838,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="168" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="58" t="s">
@@ -7853,19 +7876,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="169" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="171" t="s">
         <v>545</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7894,7 +7917,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="157"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="1" t="s">
         <v>548</v>
       </c>
@@ -7921,7 +7944,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="157"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7948,7 +7971,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="157"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="1" t="s">
         <v>549</v>
       </c>
@@ -7975,7 +7998,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="158"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="1" t="s">
         <v>550</v>
       </c>
@@ -8000,13 +8023,13 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="166" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
       <c r="F9" s="63">
         <f>SUM(F4:F7)+G8</f>
         <v>4376941703.7829571</v>
@@ -8044,64 +8067,64 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="169" t="s">
         <v>556</v>
       </c>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="159" t="s">
+      <c r="A12" s="174" t="s">
         <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="177">
         <v>5</v>
       </c>
-      <c r="E12" s="164" t="s">
+      <c r="E12" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="164" t="s">
+      <c r="F12" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="G12" s="166">
+      <c r="G12" s="181">
         <v>20000000</v>
       </c>
-      <c r="H12" s="168">
+      <c r="H12" s="183">
         <f>G12*D12</f>
         <v>100000000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="159"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="169"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="184"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="167" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
       <c r="F14" s="63">
         <f>SUM(F12:F13)</f>
         <v>0</v>
@@ -8139,19 +8162,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="169" t="s">
         <v>562</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="171" t="s">
         <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8180,7 +8203,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="157"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="1" t="s">
         <v>537</v>
       </c>
@@ -8207,7 +8230,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25.5">
-      <c r="A19" s="157"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="1" t="s">
         <v>534</v>
       </c>
@@ -8234,13 +8257,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="151" t="s">
+      <c r="A20" s="166" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
       <c r="F20" s="63">
         <f>SUM(F17:F19)</f>
         <v>740802823.1258049</v>
@@ -8255,10 +8278,10 @@
       <c r="A21" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="172" t="s">
+      <c r="B21" s="160" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="173"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="59" t="s">
         <v>565</v>
       </c>
@@ -8276,25 +8299,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="162" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="175"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="176"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="164"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="177" t="s">
+      <c r="A23" s="165" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B23" s="156" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="171"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="65">
         <v>5</v>
       </c>
@@ -8312,11 +8335,11 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="177"/>
-      <c r="B24" s="170" t="s">
+      <c r="A24" s="165"/>
+      <c r="B24" s="156" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="171"/>
+      <c r="C24" s="157"/>
       <c r="D24" s="65">
         <v>6</v>
       </c>
@@ -8334,11 +8357,11 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="177"/>
-      <c r="B25" s="170" t="s">
+      <c r="A25" s="165"/>
+      <c r="B25" s="156" t="s">
         <v>569</v>
       </c>
-      <c r="C25" s="171"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="65">
         <v>6</v>
       </c>
@@ -8356,11 +8379,11 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="177"/>
-      <c r="B26" s="170" t="s">
+      <c r="A26" s="165"/>
+      <c r="B26" s="156" t="s">
         <v>570</v>
       </c>
-      <c r="C26" s="171"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="65">
         <v>5</v>
       </c>
@@ -8378,11 +8401,11 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="177"/>
-      <c r="B27" s="170" t="s">
+      <c r="A27" s="165"/>
+      <c r="B27" s="156" t="s">
         <v>571</v>
       </c>
-      <c r="C27" s="171"/>
+      <c r="C27" s="157"/>
       <c r="D27" s="65">
         <v>6</v>
       </c>
@@ -8400,11 +8423,11 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="177"/>
-      <c r="B28" s="170" t="s">
+      <c r="A28" s="165"/>
+      <c r="B28" s="156" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="171"/>
+      <c r="C28" s="157"/>
       <c r="D28" s="65">
         <v>6</v>
       </c>
@@ -8422,11 +8445,11 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="177"/>
-      <c r="B29" s="170" t="s">
+      <c r="A29" s="165"/>
+      <c r="B29" s="156" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="171"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="65">
         <v>3</v>
       </c>
@@ -8444,11 +8467,11 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="177"/>
-      <c r="B30" s="170" t="s">
+      <c r="A30" s="165"/>
+      <c r="B30" s="156" t="s">
         <v>573</v>
       </c>
-      <c r="C30" s="171"/>
+      <c r="C30" s="157"/>
       <c r="D30" s="65">
         <v>3</v>
       </c>
@@ -8466,11 +8489,11 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="177"/>
-      <c r="B31" s="170" t="s">
+      <c r="A31" s="165"/>
+      <c r="B31" s="156" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="171"/>
+      <c r="C31" s="157"/>
       <c r="D31" s="65">
         <v>2</v>
       </c>
@@ -8488,11 +8511,11 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="177"/>
-      <c r="B32" s="170" t="s">
+      <c r="A32" s="165"/>
+      <c r="B32" s="156" t="s">
         <v>575</v>
       </c>
-      <c r="C32" s="171"/>
+      <c r="C32" s="157"/>
       <c r="D32" s="65">
         <v>5</v>
       </c>
@@ -8510,11 +8533,11 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="177"/>
-      <c r="B33" s="170" t="s">
+      <c r="A33" s="165"/>
+      <c r="B33" s="156" t="s">
         <v>576</v>
       </c>
-      <c r="C33" s="171"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="65">
         <v>3</v>
       </c>
@@ -8532,11 +8555,11 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="177"/>
-      <c r="B34" s="170" t="s">
+      <c r="A34" s="165"/>
+      <c r="B34" s="156" t="s">
         <v>577</v>
       </c>
-      <c r="C34" s="171"/>
+      <c r="C34" s="157"/>
       <c r="D34" s="65">
         <v>2</v>
       </c>
@@ -8554,11 +8577,11 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="177"/>
-      <c r="B35" s="170" t="s">
+      <c r="A35" s="165"/>
+      <c r="B35" s="156" t="s">
         <v>578</v>
       </c>
-      <c r="C35" s="171"/>
+      <c r="C35" s="157"/>
       <c r="D35" s="65">
         <v>2</v>
       </c>
@@ -8576,11 +8599,11 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="177"/>
-      <c r="B36" s="170" t="s">
+      <c r="A36" s="165"/>
+      <c r="B36" s="156" t="s">
         <v>579</v>
       </c>
-      <c r="C36" s="171"/>
+      <c r="C36" s="157"/>
       <c r="D36" s="65">
         <v>3</v>
       </c>
@@ -8598,11 +8621,11 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="177"/>
-      <c r="B37" s="170" t="s">
+      <c r="A37" s="165"/>
+      <c r="B37" s="156" t="s">
         <v>580</v>
       </c>
-      <c r="C37" s="171"/>
+      <c r="C37" s="157"/>
       <c r="D37" s="65">
         <v>2</v>
       </c>
@@ -8620,11 +8643,11 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="177"/>
-      <c r="B38" s="170" t="s">
+      <c r="A38" s="165"/>
+      <c r="B38" s="156" t="s">
         <v>581</v>
       </c>
-      <c r="C38" s="171"/>
+      <c r="C38" s="157"/>
       <c r="D38" s="65">
         <v>2</v>
       </c>
@@ -8642,11 +8665,11 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="177"/>
-      <c r="B39" s="170" t="s">
+      <c r="A39" s="165"/>
+      <c r="B39" s="156" t="s">
         <v>582</v>
       </c>
-      <c r="C39" s="171"/>
+      <c r="C39" s="157"/>
       <c r="D39" s="65">
         <v>2</v>
       </c>
@@ -8664,13 +8687,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="181" t="s">
+      <c r="A40" s="158" t="s">
         <v>583</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
       <c r="F40" s="69">
         <f>SUM(F23:F37)</f>
         <v>0</v>
@@ -8692,13 +8715,13 @@
       <c r="H41" s="77"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="153" t="s">
         <v>584</v>
       </c>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="180"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="155"/>
       <c r="F42" s="78">
         <f>F40</f>
         <v>0</v>
@@ -8710,13 +8733,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="153" t="s">
         <v>585</v>
       </c>
-      <c r="B43" s="179"/>
-      <c r="C43" s="179"/>
-      <c r="D43" s="179"/>
-      <c r="E43" s="180"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="155"/>
       <c r="F43" s="78">
         <f>F42*1.1</f>
         <v>0</v>
@@ -8749,13 +8772,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A22:H22"/>
@@ -8772,22 +8804,13 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8825,16 +8848,16 @@
       <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="225" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="90"/>
@@ -8847,17 +8870,17 @@
       <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A4" s="184"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
+      <c r="A4" s="226"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="185" t="s">
+      <c r="A5" s="227" t="s">
         <v>587</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -8873,9 +8896,9 @@
       <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="186"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="188"/>
+      <c r="A6" s="228"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="230"/>
       <c r="D6" s="99" t="s">
         <v>590</v>
       </c>
@@ -8890,69 +8913,69 @@
       <c r="A7" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="B7" s="189">
+      <c r="B7" s="231">
         <v>43336</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="190" t="s">
+      <c r="C7" s="231"/>
+      <c r="D7" s="221" t="s">
         <v>593</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="232" t="s">
         <v>594</v>
       </c>
-      <c r="G7" s="191"/>
-      <c r="H7" s="192"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="233"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="193">
+      <c r="B8" s="220">
         <f>G21</f>
         <v>880000000</v>
       </c>
-      <c r="C8" s="193"/>
-      <c r="D8" s="190" t="s">
+      <c r="C8" s="220"/>
+      <c r="D8" s="221" t="s">
         <v>596</v>
       </c>
-      <c r="E8" s="190"/>
-      <c r="F8" s="194" t="s">
+      <c r="E8" s="221"/>
+      <c r="F8" s="222" t="s">
         <v>597</v>
       </c>
-      <c r="G8" s="194"/>
-      <c r="H8" s="195"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="106"/>
-      <c r="B9" s="196">
+      <c r="B9" s="224">
         <f>B8*1.1</f>
         <v>968000000.00000012</v>
       </c>
-      <c r="C9" s="196"/>
-      <c r="D9" s="190" t="s">
+      <c r="C9" s="224"/>
+      <c r="D9" s="221" t="s">
         <v>598</v>
       </c>
-      <c r="E9" s="190"/>
-      <c r="F9" s="194" t="s">
+      <c r="E9" s="221"/>
+      <c r="F9" s="222" t="s">
         <v>599</v>
       </c>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="223"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="B10" s="197" t="s">
+      <c r="B10" s="206" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="208"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="108"/>
@@ -8982,10 +9005,10 @@
       <c r="A13" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="B13" s="200" t="s">
+      <c r="B13" s="209" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="201"/>
+      <c r="C13" s="210"/>
       <c r="D13" s="114" t="s">
         <v>606</v>
       </c>
@@ -9003,10 +9026,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A14" s="202" t="s">
+      <c r="A14" s="211" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="204" t="s">
+      <c r="B14" s="213" t="s">
         <v>612</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -9029,8 +9052,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="203"/>
-      <c r="B15" s="205"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="10" t="s">
         <v>615</v>
       </c>
@@ -9046,13 +9069,13 @@
       <c r="G15" s="121" t="s">
         <v>617</v>
       </c>
-      <c r="H15" s="207" t="s">
+      <c r="H15" s="216" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="203"/>
-      <c r="B16" s="205"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="8" t="s">
         <v>619</v>
       </c>
@@ -9068,11 +9091,11 @@
       <c r="G16" s="123" t="s">
         <v>617</v>
       </c>
-      <c r="H16" s="208"/>
+      <c r="H16" s="217"/>
     </row>
     <row r="17" spans="1:8" ht="22.5">
-      <c r="A17" s="203"/>
-      <c r="B17" s="205"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="11" t="s">
         <v>620</v>
       </c>
@@ -9088,13 +9111,13 @@
       <c r="G17" s="14">
         <v>300000000</v>
       </c>
-      <c r="H17" s="209" t="s">
+      <c r="H17" s="218" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="203"/>
-      <c r="B18" s="206"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="11" t="s">
         <v>623</v>
       </c>
@@ -9110,11 +9133,11 @@
       <c r="G18" s="14">
         <v>225000000</v>
       </c>
-      <c r="H18" s="208"/>
+      <c r="H18" s="217"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="203"/>
-      <c r="B19" s="210" t="s">
+      <c r="A19" s="212"/>
+      <c r="B19" s="219" t="s">
         <v>625</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -9137,8 +9160,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="203"/>
-      <c r="B20" s="206"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="11" t="s">
         <v>627</v>
       </c>
@@ -9159,14 +9182,14 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="218" t="s">
+      <c r="A21" s="192" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="219"/>
-      <c r="C21" s="219"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="127">
         <f>SUM(G14:G20)</f>
         <v>880000000</v>
@@ -9177,49 +9200,49 @@
       <c r="A22" s="129" t="s">
         <v>631</v>
       </c>
-      <c r="B22" s="221" t="s">
+      <c r="B22" s="195" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="222" t="s">
+      <c r="C22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="D22" s="222" t="s">
+      <c r="D22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="E22" s="222" t="s">
+      <c r="E22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="F22" s="222" t="s">
+      <c r="F22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="G22" s="222" t="s">
+      <c r="G22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="H22" s="223" t="s">
+      <c r="H22" s="197" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="130"/>
-      <c r="B23" s="224" t="s">
+      <c r="B23" s="198" t="s">
         <v>634</v>
       </c>
-      <c r="C23" s="225" t="s">
+      <c r="C23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="225" t="s">
+      <c r="D23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="E23" s="225" t="s">
+      <c r="E23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="225" t="s">
+      <c r="F23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="G23" s="225" t="s">
+      <c r="G23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="H23" s="226" t="s">
+      <c r="H23" s="200" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9237,47 +9260,47 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="130"/>
-      <c r="B25" s="227" t="s">
+      <c r="B25" s="201" t="s">
         <v>637</v>
       </c>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="229"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="203"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="134"/>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="201" t="s">
         <v>638</v>
       </c>
-      <c r="C26" s="230"/>
-      <c r="D26" s="230"/>
-      <c r="E26" s="230"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="231"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="205"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="134"/>
-      <c r="B27" s="227"/>
-      <c r="C27" s="228"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="228"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="229"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
     </row>
     <row r="28" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A28" s="211" t="s">
+      <c r="A28" s="185" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="212"/>
-      <c r="C28" s="212"/>
-      <c r="D28" s="212"/>
-      <c r="E28" s="212"/>
-      <c r="F28" s="213"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="187"/>
       <c r="G28" s="135">
         <f>SUM(G21)*1.1</f>
         <v>968000000.00000012</v>
@@ -9288,25 +9311,25 @@
       <c r="A29" s="137"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
-      <c r="D29" s="214" t="s">
+      <c r="D29" s="188" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="214"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="214"/>
-      <c r="H29" s="215"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="189"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="139"/>
       <c r="B30" s="140"/>
       <c r="C30" s="140"/>
-      <c r="D30" s="216" t="s">
+      <c r="D30" s="190" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="216"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="217"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="191"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1">
       <c r="A31" s="141"/>
@@ -9330,6 +9353,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
@@ -9339,26 +9382,6 @@
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IAM/iam_비교.xlsx
+++ b/IAM/iam_비교.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="696">
   <si>
     <t>Directory Services Plus</t>
   </si>
@@ -4099,6 +4099,26 @@
   </si>
   <si>
     <t>IM제품을 nets로 도입가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존사이트 수정최소화 방안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본정보 수정은 어디서?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재는 IAM에서 사진, 이름, 메일등을 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생, 직원, 교원의 사용자 정보를 통합관리한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 정보를 변경하는 곳을 한곳으로? 다양한 접근?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5793,6 +5813,87 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5802,91 +5903,94 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5951,90 +6055,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7617,15 +7637,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -7700,12 +7720,35 @@
         <v>683</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14" t="s">
+    <row r="13" spans="2:4">
+      <c r="C13" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" t="s">
         <v>689</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>690</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>692</v>
+      </c>
+      <c r="C18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -7838,16 +7881,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="155" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="58" t="s">
@@ -7876,19 +7919,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="156" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="158" t="s">
         <v>545</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7917,7 +7960,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="172"/>
+      <c r="A5" s="159"/>
       <c r="B5" s="1" t="s">
         <v>548</v>
       </c>
@@ -7944,7 +7987,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="172"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -7971,7 +8014,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="172"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="1" t="s">
         <v>549</v>
       </c>
@@ -7998,7 +8041,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="173"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="1" t="s">
         <v>550</v>
       </c>
@@ -8023,13 +8066,13 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="153" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="63">
         <f>SUM(F4:F7)+G8</f>
         <v>4376941703.7829571</v>
@@ -8067,64 +8110,64 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="156" t="s">
         <v>556</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="174" t="s">
+      <c r="A12" s="161" t="s">
         <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="162" t="s">
         <v>559</v>
       </c>
-      <c r="D12" s="177">
+      <c r="D12" s="164">
         <v>5</v>
       </c>
-      <c r="E12" s="179" t="s">
+      <c r="E12" s="166" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="179" t="s">
+      <c r="F12" s="166" t="s">
         <v>536</v>
       </c>
-      <c r="G12" s="181">
+      <c r="G12" s="168">
         <v>20000000</v>
       </c>
-      <c r="H12" s="183">
+      <c r="H12" s="170">
         <f>G12*D12</f>
         <v>100000000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="174"/>
+      <c r="A13" s="161"/>
       <c r="B13" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C13" s="176"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="184"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="171"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="154" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="63">
         <f>SUM(F12:F13)</f>
         <v>0</v>
@@ -8162,19 +8205,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="169" t="s">
+      <c r="A16" s="156" t="s">
         <v>562</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="158" t="s">
         <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8203,7 +8246,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="172"/>
+      <c r="A18" s="159"/>
       <c r="B18" s="1" t="s">
         <v>537</v>
       </c>
@@ -8230,7 +8273,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25.5">
-      <c r="A19" s="172"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="1" t="s">
         <v>534</v>
       </c>
@@ -8257,13 +8300,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="166" t="s">
+      <c r="A20" s="153" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
       <c r="F20" s="63">
         <f>SUM(F17:F19)</f>
         <v>740802823.1258049</v>
@@ -8278,10 +8321,10 @@
       <c r="A21" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="174" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="59" t="s">
         <v>565</v>
       </c>
@@ -8299,25 +8342,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="162" t="s">
+      <c r="A22" s="176" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="163"/>
-      <c r="D22" s="163"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="164"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="178"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="179" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="172" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="157"/>
+      <c r="C23" s="173"/>
       <c r="D23" s="65">
         <v>5</v>
       </c>
@@ -8335,11 +8378,11 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="165"/>
-      <c r="B24" s="156" t="s">
+      <c r="A24" s="179"/>
+      <c r="B24" s="172" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="157"/>
+      <c r="C24" s="173"/>
       <c r="D24" s="65">
         <v>6</v>
       </c>
@@ -8357,11 +8400,11 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="165"/>
-      <c r="B25" s="156" t="s">
+      <c r="A25" s="179"/>
+      <c r="B25" s="172" t="s">
         <v>569</v>
       </c>
-      <c r="C25" s="157"/>
+      <c r="C25" s="173"/>
       <c r="D25" s="65">
         <v>6</v>
       </c>
@@ -8379,11 +8422,11 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="165"/>
-      <c r="B26" s="156" t="s">
+      <c r="A26" s="179"/>
+      <c r="B26" s="172" t="s">
         <v>570</v>
       </c>
-      <c r="C26" s="157"/>
+      <c r="C26" s="173"/>
       <c r="D26" s="65">
         <v>5</v>
       </c>
@@ -8401,11 +8444,11 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="165"/>
-      <c r="B27" s="156" t="s">
+      <c r="A27" s="179"/>
+      <c r="B27" s="172" t="s">
         <v>571</v>
       </c>
-      <c r="C27" s="157"/>
+      <c r="C27" s="173"/>
       <c r="D27" s="65">
         <v>6</v>
       </c>
@@ -8423,11 +8466,11 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="165"/>
-      <c r="B28" s="156" t="s">
+      <c r="A28" s="179"/>
+      <c r="B28" s="172" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="157"/>
+      <c r="C28" s="173"/>
       <c r="D28" s="65">
         <v>6</v>
       </c>
@@ -8445,11 +8488,11 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="165"/>
-      <c r="B29" s="156" t="s">
+      <c r="A29" s="179"/>
+      <c r="B29" s="172" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="157"/>
+      <c r="C29" s="173"/>
       <c r="D29" s="65">
         <v>3</v>
       </c>
@@ -8467,11 +8510,11 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="165"/>
-      <c r="B30" s="156" t="s">
+      <c r="A30" s="179"/>
+      <c r="B30" s="172" t="s">
         <v>573</v>
       </c>
-      <c r="C30" s="157"/>
+      <c r="C30" s="173"/>
       <c r="D30" s="65">
         <v>3</v>
       </c>
@@ -8489,11 +8532,11 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="165"/>
-      <c r="B31" s="156" t="s">
+      <c r="A31" s="179"/>
+      <c r="B31" s="172" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="157"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="65">
         <v>2</v>
       </c>
@@ -8511,11 +8554,11 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="165"/>
-      <c r="B32" s="156" t="s">
+      <c r="A32" s="179"/>
+      <c r="B32" s="172" t="s">
         <v>575</v>
       </c>
-      <c r="C32" s="157"/>
+      <c r="C32" s="173"/>
       <c r="D32" s="65">
         <v>5</v>
       </c>
@@ -8533,11 +8576,11 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="165"/>
-      <c r="B33" s="156" t="s">
+      <c r="A33" s="179"/>
+      <c r="B33" s="172" t="s">
         <v>576</v>
       </c>
-      <c r="C33" s="157"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="65">
         <v>3</v>
       </c>
@@ -8555,11 +8598,11 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="165"/>
-      <c r="B34" s="156" t="s">
+      <c r="A34" s="179"/>
+      <c r="B34" s="172" t="s">
         <v>577</v>
       </c>
-      <c r="C34" s="157"/>
+      <c r="C34" s="173"/>
       <c r="D34" s="65">
         <v>2</v>
       </c>
@@ -8577,11 +8620,11 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="165"/>
-      <c r="B35" s="156" t="s">
+      <c r="A35" s="179"/>
+      <c r="B35" s="172" t="s">
         <v>578</v>
       </c>
-      <c r="C35" s="157"/>
+      <c r="C35" s="173"/>
       <c r="D35" s="65">
         <v>2</v>
       </c>
@@ -8599,11 +8642,11 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="165"/>
-      <c r="B36" s="156" t="s">
+      <c r="A36" s="179"/>
+      <c r="B36" s="172" t="s">
         <v>579</v>
       </c>
-      <c r="C36" s="157"/>
+      <c r="C36" s="173"/>
       <c r="D36" s="65">
         <v>3</v>
       </c>
@@ -8621,11 +8664,11 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="165"/>
-      <c r="B37" s="156" t="s">
+      <c r="A37" s="179"/>
+      <c r="B37" s="172" t="s">
         <v>580</v>
       </c>
-      <c r="C37" s="157"/>
+      <c r="C37" s="173"/>
       <c r="D37" s="65">
         <v>2</v>
       </c>
@@ -8643,11 +8686,11 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="165"/>
-      <c r="B38" s="156" t="s">
+      <c r="A38" s="179"/>
+      <c r="B38" s="172" t="s">
         <v>581</v>
       </c>
-      <c r="C38" s="157"/>
+      <c r="C38" s="173"/>
       <c r="D38" s="65">
         <v>2</v>
       </c>
@@ -8665,11 +8708,11 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="165"/>
-      <c r="B39" s="156" t="s">
+      <c r="A39" s="179"/>
+      <c r="B39" s="172" t="s">
         <v>582</v>
       </c>
-      <c r="C39" s="157"/>
+      <c r="C39" s="173"/>
       <c r="D39" s="65">
         <v>2</v>
       </c>
@@ -8687,13 +8730,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="158" t="s">
+      <c r="A40" s="183" t="s">
         <v>583</v>
       </c>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184"/>
       <c r="F40" s="69">
         <f>SUM(F23:F37)</f>
         <v>0</v>
@@ -8715,13 +8758,13 @@
       <c r="H41" s="77"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="153" t="s">
+      <c r="A42" s="180" t="s">
         <v>584</v>
       </c>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="155"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="182"/>
       <c r="F42" s="78">
         <f>F40</f>
         <v>0</v>
@@ -8733,13 +8776,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A43" s="153" t="s">
+      <c r="A43" s="180" t="s">
         <v>585</v>
       </c>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="155"/>
+      <c r="B43" s="181"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="182"/>
       <c r="F43" s="78">
         <f>F42*1.1</f>
         <v>0</v>
@@ -8772,6 +8815,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:A39"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
@@ -8788,29 +8854,6 @@
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:A39"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8848,16 +8891,16 @@
       <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="225" t="s">
+      <c r="A2" s="185" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="90"/>
@@ -8870,17 +8913,17 @@
       <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A4" s="226"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="227" t="s">
+      <c r="A5" s="187" t="s">
         <v>587</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -8896,9 +8939,9 @@
       <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="228"/>
-      <c r="B6" s="229"/>
-      <c r="C6" s="230"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="190"/>
       <c r="D6" s="99" t="s">
         <v>590</v>
       </c>
@@ -8913,69 +8956,69 @@
       <c r="A7" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="B7" s="231">
+      <c r="B7" s="191">
         <v>43336</v>
       </c>
-      <c r="C7" s="231"/>
-      <c r="D7" s="221" t="s">
+      <c r="C7" s="191"/>
+      <c r="D7" s="192" t="s">
         <v>593</v>
       </c>
-      <c r="E7" s="221"/>
-      <c r="F7" s="232" t="s">
+      <c r="E7" s="192"/>
+      <c r="F7" s="193" t="s">
         <v>594</v>
       </c>
-      <c r="G7" s="232"/>
-      <c r="H7" s="233"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="220">
+      <c r="B8" s="195">
         <f>G21</f>
         <v>880000000</v>
       </c>
-      <c r="C8" s="220"/>
-      <c r="D8" s="221" t="s">
+      <c r="C8" s="195"/>
+      <c r="D8" s="192" t="s">
         <v>596</v>
       </c>
-      <c r="E8" s="221"/>
-      <c r="F8" s="222" t="s">
+      <c r="E8" s="192"/>
+      <c r="F8" s="196" t="s">
         <v>597</v>
       </c>
-      <c r="G8" s="222"/>
-      <c r="H8" s="223"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="197"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="106"/>
-      <c r="B9" s="224">
+      <c r="B9" s="198">
         <f>B8*1.1</f>
         <v>968000000.00000012</v>
       </c>
-      <c r="C9" s="224"/>
-      <c r="D9" s="221" t="s">
+      <c r="C9" s="198"/>
+      <c r="D9" s="192" t="s">
         <v>598</v>
       </c>
-      <c r="E9" s="221"/>
-      <c r="F9" s="222" t="s">
+      <c r="E9" s="192"/>
+      <c r="F9" s="196" t="s">
         <v>599</v>
       </c>
-      <c r="G9" s="222"/>
-      <c r="H9" s="223"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="197"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="199" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207"/>
-      <c r="H10" s="208"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="201"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="108"/>
@@ -9005,10 +9048,10 @@
       <c r="A13" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="B13" s="209" t="s">
+      <c r="B13" s="202" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="210"/>
+      <c r="C13" s="203"/>
       <c r="D13" s="114" t="s">
         <v>606</v>
       </c>
@@ -9026,10 +9069,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A14" s="211" t="s">
+      <c r="A14" s="204" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="213" t="s">
+      <c r="B14" s="206" t="s">
         <v>612</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -9052,8 +9095,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="212"/>
-      <c r="B15" s="214"/>
+      <c r="A15" s="205"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="10" t="s">
         <v>615</v>
       </c>
@@ -9069,13 +9112,13 @@
       <c r="G15" s="121" t="s">
         <v>617</v>
       </c>
-      <c r="H15" s="216" t="s">
+      <c r="H15" s="209" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="212"/>
-      <c r="B16" s="214"/>
+      <c r="A16" s="205"/>
+      <c r="B16" s="207"/>
       <c r="C16" s="8" t="s">
         <v>619</v>
       </c>
@@ -9091,11 +9134,11 @@
       <c r="G16" s="123" t="s">
         <v>617</v>
       </c>
-      <c r="H16" s="217"/>
+      <c r="H16" s="210"/>
     </row>
     <row r="17" spans="1:8" ht="22.5">
-      <c r="A17" s="212"/>
-      <c r="B17" s="214"/>
+      <c r="A17" s="205"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="11" t="s">
         <v>620</v>
       </c>
@@ -9111,13 +9154,13 @@
       <c r="G17" s="14">
         <v>300000000</v>
       </c>
-      <c r="H17" s="218" t="s">
+      <c r="H17" s="211" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="212"/>
-      <c r="B18" s="215"/>
+      <c r="A18" s="205"/>
+      <c r="B18" s="208"/>
       <c r="C18" s="11" t="s">
         <v>623</v>
       </c>
@@ -9133,11 +9176,11 @@
       <c r="G18" s="14">
         <v>225000000</v>
       </c>
-      <c r="H18" s="217"/>
+      <c r="H18" s="210"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="212"/>
-      <c r="B19" s="219" t="s">
+      <c r="A19" s="205"/>
+      <c r="B19" s="212" t="s">
         <v>625</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -9160,8 +9203,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="212"/>
-      <c r="B20" s="215"/>
+      <c r="A20" s="205"/>
+      <c r="B20" s="208"/>
       <c r="C20" s="11" t="s">
         <v>627</v>
       </c>
@@ -9182,14 +9225,14 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="192" t="s">
+      <c r="A21" s="220" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="193"/>
-      <c r="C21" s="193"/>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="194"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="222"/>
       <c r="G21" s="127">
         <f>SUM(G14:G20)</f>
         <v>880000000</v>
@@ -9200,49 +9243,49 @@
       <c r="A22" s="129" t="s">
         <v>631</v>
       </c>
-      <c r="B22" s="195" t="s">
+      <c r="B22" s="223" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="196" t="s">
+      <c r="C22" s="224" t="s">
         <v>633</v>
       </c>
-      <c r="D22" s="196" t="s">
+      <c r="D22" s="224" t="s">
         <v>633</v>
       </c>
-      <c r="E22" s="196" t="s">
+      <c r="E22" s="224" t="s">
         <v>633</v>
       </c>
-      <c r="F22" s="196" t="s">
+      <c r="F22" s="224" t="s">
         <v>633</v>
       </c>
-      <c r="G22" s="196" t="s">
+      <c r="G22" s="224" t="s">
         <v>633</v>
       </c>
-      <c r="H22" s="197" t="s">
+      <c r="H22" s="225" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="130"/>
-      <c r="B23" s="198" t="s">
+      <c r="B23" s="226" t="s">
         <v>634</v>
       </c>
-      <c r="C23" s="199" t="s">
+      <c r="C23" s="227" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="199" t="s">
+      <c r="D23" s="227" t="s">
         <v>635</v>
       </c>
-      <c r="E23" s="199" t="s">
+      <c r="E23" s="227" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="199" t="s">
+      <c r="F23" s="227" t="s">
         <v>635</v>
       </c>
-      <c r="G23" s="199" t="s">
+      <c r="G23" s="227" t="s">
         <v>635</v>
       </c>
-      <c r="H23" s="200" t="s">
+      <c r="H23" s="228" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9260,47 +9303,47 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="130"/>
-      <c r="B25" s="201" t="s">
+      <c r="B25" s="229" t="s">
         <v>637</v>
       </c>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="203"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="231"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="134"/>
-      <c r="B26" s="201" t="s">
+      <c r="B26" s="229" t="s">
         <v>638</v>
       </c>
-      <c r="C26" s="204"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204"/>
-      <c r="H26" s="205"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="232"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="232"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="233"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="134"/>
-      <c r="B27" s="201"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="202"/>
-      <c r="H27" s="203"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="230"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="231"/>
     </row>
     <row r="28" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="213" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="187"/>
+      <c r="B28" s="214"/>
+      <c r="C28" s="214"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="215"/>
       <c r="G28" s="135">
         <f>SUM(G21)*1.1</f>
         <v>968000000.00000012</v>
@@ -9311,25 +9354,25 @@
       <c r="A29" s="137"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="216" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="189"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="217"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="139"/>
       <c r="B30" s="140"/>
       <c r="C30" s="140"/>
-      <c r="D30" s="190" t="s">
+      <c r="D30" s="218" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="190"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="191"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="219"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1">
       <c r="A31" s="141"/>
@@ -9353,26 +9396,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
@@ -9382,6 +9405,26 @@
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IAM/iam_비교.xlsx
+++ b/IAM/iam_비교.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="22560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="22560"/>
   </bookViews>
   <sheets>
     <sheet name="IAM비교" sheetId="1" r:id="rId1"/>
@@ -5813,6 +5813,45 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5870,44 +5909,125 @@
     <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="33" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5930,131 +6050,11 @@
     <xf numFmtId="31" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="38" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="33" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7179,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7639,7 +7639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -7881,16 +7881,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="168" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="58" t="s">
@@ -7919,19 +7919,19 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="169" t="s">
         <v>544</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="158" t="s">
+      <c r="A4" s="171" t="s">
         <v>545</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7960,7 +7960,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="159"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="1" t="s">
         <v>548</v>
       </c>
@@ -7987,7 +7987,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="159"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -8014,7 +8014,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="25.5">
-      <c r="A7" s="159"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="1" t="s">
         <v>549</v>
       </c>
@@ -8041,7 +8041,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5">
-      <c r="A8" s="160"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="1" t="s">
         <v>550</v>
       </c>
@@ -8066,13 +8066,13 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="166" t="s">
         <v>553</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
       <c r="F9" s="63">
         <f>SUM(F4:F7)+G8</f>
         <v>4376941703.7829571</v>
@@ -8110,64 +8110,64 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="169" t="s">
         <v>556</v>
       </c>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
     </row>
     <row r="12" spans="1:8" ht="51">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="174" t="s">
         <v>557</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="D12" s="164">
+      <c r="D12" s="177">
         <v>5</v>
       </c>
-      <c r="E12" s="166" t="s">
+      <c r="E12" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="179" t="s">
         <v>536</v>
       </c>
-      <c r="G12" s="168">
+      <c r="G12" s="181">
         <v>20000000</v>
       </c>
-      <c r="H12" s="170">
+      <c r="H12" s="183">
         <f>G12*D12</f>
         <v>100000000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5">
-      <c r="A13" s="161"/>
+      <c r="A13" s="174"/>
       <c r="B13" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="171"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="184"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="167" t="s">
         <v>561</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
       <c r="F14" s="63">
         <f>SUM(F12:F13)</f>
         <v>0</v>
@@ -8205,19 +8205,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="169" t="s">
         <v>562</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="157"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="171" t="s">
         <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -8246,7 +8246,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="159"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="1" t="s">
         <v>537</v>
       </c>
@@ -8273,7 +8273,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="25.5">
-      <c r="A19" s="159"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="1" t="s">
         <v>534</v>
       </c>
@@ -8300,13 +8300,13 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="166" t="s">
         <v>538</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
       <c r="F20" s="63">
         <f>SUM(F17:F19)</f>
         <v>740802823.1258049</v>
@@ -8321,10 +8321,10 @@
       <c r="A21" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="B21" s="174" t="s">
+      <c r="B21" s="160" t="s">
         <v>528</v>
       </c>
-      <c r="C21" s="175"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="59" t="s">
         <v>565</v>
       </c>
@@ -8342,25 +8342,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="162" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="177"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="178"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="163"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="164"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="165" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="156" t="s">
         <v>567</v>
       </c>
-      <c r="C23" s="173"/>
+      <c r="C23" s="157"/>
       <c r="D23" s="65">
         <v>5</v>
       </c>
@@ -8378,11 +8378,11 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="179"/>
-      <c r="B24" s="172" t="s">
+      <c r="A24" s="165"/>
+      <c r="B24" s="156" t="s">
         <v>568</v>
       </c>
-      <c r="C24" s="173"/>
+      <c r="C24" s="157"/>
       <c r="D24" s="65">
         <v>6</v>
       </c>
@@ -8400,11 +8400,11 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="179"/>
-      <c r="B25" s="172" t="s">
+      <c r="A25" s="165"/>
+      <c r="B25" s="156" t="s">
         <v>569</v>
       </c>
-      <c r="C25" s="173"/>
+      <c r="C25" s="157"/>
       <c r="D25" s="65">
         <v>6</v>
       </c>
@@ -8422,11 +8422,11 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="179"/>
-      <c r="B26" s="172" t="s">
+      <c r="A26" s="165"/>
+      <c r="B26" s="156" t="s">
         <v>570</v>
       </c>
-      <c r="C26" s="173"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="65">
         <v>5</v>
       </c>
@@ -8444,11 +8444,11 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="179"/>
-      <c r="B27" s="172" t="s">
+      <c r="A27" s="165"/>
+      <c r="B27" s="156" t="s">
         <v>571</v>
       </c>
-      <c r="C27" s="173"/>
+      <c r="C27" s="157"/>
       <c r="D27" s="65">
         <v>6</v>
       </c>
@@ -8466,11 +8466,11 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="179"/>
-      <c r="B28" s="172" t="s">
+      <c r="A28" s="165"/>
+      <c r="B28" s="156" t="s">
         <v>572</v>
       </c>
-      <c r="C28" s="173"/>
+      <c r="C28" s="157"/>
       <c r="D28" s="65">
         <v>6</v>
       </c>
@@ -8488,11 +8488,11 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="179"/>
-      <c r="B29" s="172" t="s">
+      <c r="A29" s="165"/>
+      <c r="B29" s="156" t="s">
         <v>540</v>
       </c>
-      <c r="C29" s="173"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="65">
         <v>3</v>
       </c>
@@ -8510,11 +8510,11 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="179"/>
-      <c r="B30" s="172" t="s">
+      <c r="A30" s="165"/>
+      <c r="B30" s="156" t="s">
         <v>573</v>
       </c>
-      <c r="C30" s="173"/>
+      <c r="C30" s="157"/>
       <c r="D30" s="65">
         <v>3</v>
       </c>
@@ -8532,11 +8532,11 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="179"/>
-      <c r="B31" s="172" t="s">
+      <c r="A31" s="165"/>
+      <c r="B31" s="156" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="173"/>
+      <c r="C31" s="157"/>
       <c r="D31" s="65">
         <v>2</v>
       </c>
@@ -8554,11 +8554,11 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="179"/>
-      <c r="B32" s="172" t="s">
+      <c r="A32" s="165"/>
+      <c r="B32" s="156" t="s">
         <v>575</v>
       </c>
-      <c r="C32" s="173"/>
+      <c r="C32" s="157"/>
       <c r="D32" s="65">
         <v>5</v>
       </c>
@@ -8576,11 +8576,11 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="179"/>
-      <c r="B33" s="172" t="s">
+      <c r="A33" s="165"/>
+      <c r="B33" s="156" t="s">
         <v>576</v>
       </c>
-      <c r="C33" s="173"/>
+      <c r="C33" s="157"/>
       <c r="D33" s="65">
         <v>3</v>
       </c>
@@ -8598,11 +8598,11 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="179"/>
-      <c r="B34" s="172" t="s">
+      <c r="A34" s="165"/>
+      <c r="B34" s="156" t="s">
         <v>577</v>
       </c>
-      <c r="C34" s="173"/>
+      <c r="C34" s="157"/>
       <c r="D34" s="65">
         <v>2</v>
       </c>
@@ -8620,11 +8620,11 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="179"/>
-      <c r="B35" s="172" t="s">
+      <c r="A35" s="165"/>
+      <c r="B35" s="156" t="s">
         <v>578</v>
       </c>
-      <c r="C35" s="173"/>
+      <c r="C35" s="157"/>
       <c r="D35" s="65">
         <v>2</v>
       </c>
@@ -8642,11 +8642,11 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="179"/>
-      <c r="B36" s="172" t="s">
+      <c r="A36" s="165"/>
+      <c r="B36" s="156" t="s">
         <v>579</v>
       </c>
-      <c r="C36" s="173"/>
+      <c r="C36" s="157"/>
       <c r="D36" s="65">
         <v>3</v>
       </c>
@@ -8664,11 +8664,11 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="179"/>
-      <c r="B37" s="172" t="s">
+      <c r="A37" s="165"/>
+      <c r="B37" s="156" t="s">
         <v>580</v>
       </c>
-      <c r="C37" s="173"/>
+      <c r="C37" s="157"/>
       <c r="D37" s="65">
         <v>2</v>
       </c>
@@ -8686,11 +8686,11 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="179"/>
-      <c r="B38" s="172" t="s">
+      <c r="A38" s="165"/>
+      <c r="B38" s="156" t="s">
         <v>581</v>
       </c>
-      <c r="C38" s="173"/>
+      <c r="C38" s="157"/>
       <c r="D38" s="65">
         <v>2</v>
       </c>
@@ -8708,11 +8708,11 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="179"/>
-      <c r="B39" s="172" t="s">
+      <c r="A39" s="165"/>
+      <c r="B39" s="156" t="s">
         <v>582</v>
       </c>
-      <c r="C39" s="173"/>
+      <c r="C39" s="157"/>
       <c r="D39" s="65">
         <v>2</v>
       </c>
@@ -8730,13 +8730,13 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A40" s="183" t="s">
+      <c r="A40" s="158" t="s">
         <v>583</v>
       </c>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="184"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
       <c r="F40" s="69">
         <f>SUM(F23:F37)</f>
         <v>0</v>
@@ -8758,13 +8758,13 @@
       <c r="H41" s="77"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A42" s="180" t="s">
+      <c r="A42" s="153" t="s">
         <v>584</v>
       </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="182"/>
+      <c r="B42" s="154"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="155"/>
       <c r="F42" s="78">
         <f>F40</f>
         <v>0</v>
@@ -8776,13 +8776,13 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A43" s="180" t="s">
+      <c r="A43" s="153" t="s">
         <v>585</v>
       </c>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="182"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="155"/>
       <c r="F43" s="78">
         <f>F42*1.1</f>
         <v>0</v>
@@ -8815,13 +8815,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A22:H22"/>
@@ -8838,22 +8847,13 @@
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8891,16 +8891,16 @@
       <c r="H1" s="89"/>
     </row>
     <row r="2" spans="1:8" ht="25.5">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="225" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="90"/>
@@ -8913,17 +8913,17 @@
       <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" ht="24.75" thickBot="1">
-      <c r="A4" s="186"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
+      <c r="A4" s="226"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="227" t="s">
         <v>587</v>
       </c>
       <c r="B5" s="92" t="s">
@@ -8939,9 +8939,9 @@
       <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="188"/>
-      <c r="B6" s="189"/>
-      <c r="C6" s="190"/>
+      <c r="A6" s="228"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="230"/>
       <c r="D6" s="99" t="s">
         <v>590</v>
       </c>
@@ -8956,69 +8956,69 @@
       <c r="A7" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="B7" s="191">
+      <c r="B7" s="231">
         <v>43336</v>
       </c>
-      <c r="C7" s="191"/>
-      <c r="D7" s="192" t="s">
+      <c r="C7" s="231"/>
+      <c r="D7" s="221" t="s">
         <v>593</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="193" t="s">
+      <c r="E7" s="221"/>
+      <c r="F7" s="232" t="s">
         <v>594</v>
       </c>
-      <c r="G7" s="193"/>
-      <c r="H7" s="194"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="233"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="105" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="195">
+      <c r="B8" s="220">
         <f>G21</f>
         <v>880000000</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="192" t="s">
+      <c r="C8" s="220"/>
+      <c r="D8" s="221" t="s">
         <v>596</v>
       </c>
-      <c r="E8" s="192"/>
-      <c r="F8" s="196" t="s">
+      <c r="E8" s="221"/>
+      <c r="F8" s="222" t="s">
         <v>597</v>
       </c>
-      <c r="G8" s="196"/>
-      <c r="H8" s="197"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="106"/>
-      <c r="B9" s="198">
+      <c r="B9" s="224">
         <f>B8*1.1</f>
         <v>968000000.00000012</v>
       </c>
-      <c r="C9" s="198"/>
-      <c r="D9" s="192" t="s">
+      <c r="C9" s="224"/>
+      <c r="D9" s="221" t="s">
         <v>598</v>
       </c>
-      <c r="E9" s="192"/>
-      <c r="F9" s="196" t="s">
+      <c r="E9" s="221"/>
+      <c r="F9" s="222" t="s">
         <v>599</v>
       </c>
-      <c r="G9" s="196"/>
-      <c r="H9" s="197"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="223"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="107" t="s">
         <v>600</v>
       </c>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="206" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="201"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="208"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="108"/>
@@ -9048,10 +9048,10 @@
       <c r="A13" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="209" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="203"/>
+      <c r="C13" s="210"/>
       <c r="D13" s="114" t="s">
         <v>606</v>
       </c>
@@ -9069,10 +9069,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickTop="1">
-      <c r="A14" s="204" t="s">
+      <c r="A14" s="211" t="s">
         <v>611</v>
       </c>
-      <c r="B14" s="206" t="s">
+      <c r="B14" s="213" t="s">
         <v>612</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -9095,8 +9095,8 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="205"/>
-      <c r="B15" s="207"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="214"/>
       <c r="C15" s="10" t="s">
         <v>615</v>
       </c>
@@ -9112,13 +9112,13 @@
       <c r="G15" s="121" t="s">
         <v>617</v>
       </c>
-      <c r="H15" s="209" t="s">
+      <c r="H15" s="216" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="205"/>
-      <c r="B16" s="207"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="8" t="s">
         <v>619</v>
       </c>
@@ -9134,11 +9134,11 @@
       <c r="G16" s="123" t="s">
         <v>617</v>
       </c>
-      <c r="H16" s="210"/>
+      <c r="H16" s="217"/>
     </row>
     <row r="17" spans="1:8" ht="22.5">
-      <c r="A17" s="205"/>
-      <c r="B17" s="207"/>
+      <c r="A17" s="212"/>
+      <c r="B17" s="214"/>
       <c r="C17" s="11" t="s">
         <v>620</v>
       </c>
@@ -9154,13 +9154,13 @@
       <c r="G17" s="14">
         <v>300000000</v>
       </c>
-      <c r="H17" s="211" t="s">
+      <c r="H17" s="218" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="22.5">
-      <c r="A18" s="205"/>
-      <c r="B18" s="208"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="11" t="s">
         <v>623</v>
       </c>
@@ -9176,11 +9176,11 @@
       <c r="G18" s="14">
         <v>225000000</v>
       </c>
-      <c r="H18" s="210"/>
+      <c r="H18" s="217"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="205"/>
-      <c r="B19" s="212" t="s">
+      <c r="A19" s="212"/>
+      <c r="B19" s="219" t="s">
         <v>625</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -9203,8 +9203,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="22.5">
-      <c r="A20" s="205"/>
-      <c r="B20" s="208"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="215"/>
       <c r="C20" s="11" t="s">
         <v>627</v>
       </c>
@@ -9225,14 +9225,14 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="192" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="222"/>
+      <c r="B21" s="193"/>
+      <c r="C21" s="193"/>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="194"/>
       <c r="G21" s="127">
         <f>SUM(G14:G20)</f>
         <v>880000000</v>
@@ -9243,49 +9243,49 @@
       <c r="A22" s="129" t="s">
         <v>631</v>
       </c>
-      <c r="B22" s="223" t="s">
+      <c r="B22" s="195" t="s">
         <v>632</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="D22" s="224" t="s">
+      <c r="D22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="E22" s="224" t="s">
+      <c r="E22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="F22" s="224" t="s">
+      <c r="F22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="G22" s="224" t="s">
+      <c r="G22" s="196" t="s">
         <v>633</v>
       </c>
-      <c r="H22" s="225" t="s">
+      <c r="H22" s="197" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="130"/>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="198" t="s">
         <v>634</v>
       </c>
-      <c r="C23" s="227" t="s">
+      <c r="C23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="D23" s="227" t="s">
+      <c r="D23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="E23" s="227" t="s">
+      <c r="E23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="F23" s="227" t="s">
+      <c r="F23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="G23" s="227" t="s">
+      <c r="G23" s="199" t="s">
         <v>635</v>
       </c>
-      <c r="H23" s="228" t="s">
+      <c r="H23" s="200" t="s">
         <v>635</v>
       </c>
     </row>
@@ -9303,47 +9303,47 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="130"/>
-      <c r="B25" s="229" t="s">
+      <c r="B25" s="201" t="s">
         <v>637</v>
       </c>
-      <c r="C25" s="230"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="230"/>
-      <c r="F25" s="230"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="231"/>
+      <c r="C25" s="202"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="203"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="134"/>
-      <c r="B26" s="229" t="s">
+      <c r="B26" s="201" t="s">
         <v>638</v>
       </c>
-      <c r="C26" s="232"/>
-      <c r="D26" s="232"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="233"/>
+      <c r="C26" s="204"/>
+      <c r="D26" s="204"/>
+      <c r="E26" s="204"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="205"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="134"/>
-      <c r="B27" s="229"/>
-      <c r="C27" s="230"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="230"/>
-      <c r="F27" s="230"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="231"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="203"/>
     </row>
     <row r="28" spans="1:8" ht="18" thickTop="1" thickBot="1">
-      <c r="A28" s="213" t="s">
+      <c r="A28" s="185" t="s">
         <v>639</v>
       </c>
-      <c r="B28" s="214"/>
-      <c r="C28" s="214"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="215"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="187"/>
       <c r="G28" s="135">
         <f>SUM(G21)*1.1</f>
         <v>968000000.00000012</v>
@@ -9354,25 +9354,25 @@
       <c r="A29" s="137"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
-      <c r="D29" s="216" t="s">
+      <c r="D29" s="188" t="s">
         <v>640</v>
       </c>
-      <c r="E29" s="216"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="217"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="189"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="139"/>
       <c r="B30" s="140"/>
       <c r="C30" s="140"/>
-      <c r="D30" s="218" t="s">
+      <c r="D30" s="190" t="s">
         <v>641</v>
       </c>
-      <c r="E30" s="218"/>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="219"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="191"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1">
       <c r="A31" s="141"/>
@@ -9396,6 +9396,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
@@ -9405,26 +9425,6 @@
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="B26:H26"/>
     <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
